--- a/PricerAndQutation/OptionPricer_v2_20180330.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180330.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="240">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -816,10 +816,6 @@
     <t>au1806</t>
   </si>
   <si>
-    <t>au1806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>al1807</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -844,14 +840,6 @@
     <t>bu1812</t>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu1806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看跌期权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,6 +864,18 @@
   </si>
   <si>
     <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb1810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1806</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,14 +883,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="###,###,##0"/>
     <numFmt numFmtId="179" formatCode="###,###,##0.0"/>
-    <numFmt numFmtId="180" formatCode="0.00000000000000_ "/>
-    <numFmt numFmtId="181" formatCode="###,###,##0.00"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1420,16 +1417,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1632,10 +1626,6 @@
     <xf numFmtId="179" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1666,6 +1656,9 @@
     <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1675,31 +1668,28 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1712,10 +1702,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1735,58 +1724,47 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>50340</v>
-        <stp/>
-        <stp>cu1806</stp>
-        <stp>LastPrice</stp>
-        <tr r="P17" s="1"/>
-        <tr r="P18" s="1"/>
-      </tp>
-      <tp>
-        <v>271.55</v>
-        <stp/>
-        <stp>au1806</stp>
-        <stp>LastPrice</stp>
-        <tr r="P11" s="1"/>
-        <tr r="P12" s="1"/>
-      </tp>
-      <tp>
-        <v>13920</v>
+        <v>14000</v>
         <stp/>
         <stp>al1807</stp>
         <stp>LastPrice</stp>
         <tr r="P41" s="9"/>
       </tp>
       <tp>
-        <v>13980</v>
+        <v>13930</v>
+        <stp/>
+        <stp>al1806</stp>
+        <stp>LastPrice</stp>
+        <tr r="P17" s="1"/>
+      </tp>
+      <tp>
+        <v>14080</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
         <tr r="P9" s="1"/>
       </tp>
       <tp>
-        <v>3391</v>
+        <v>3363</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
+        <tr r="P26" s="9"/>
+        <tr r="P14" s="9"/>
         <tr r="P11" s="9"/>
-        <tr r="P26" s="9"/>
         <tr r="P20" s="9"/>
         <tr r="P23" s="9"/>
-        <tr r="P14" s="9"/>
         <tr r="P17" s="9"/>
         <tr r="P35" s="9"/>
         <tr r="P38" s="9"/>
-        <tr r="P21" s="1"/>
-        <tr r="P20" s="1"/>
       </tp>
       <tp>
-        <v>3592</v>
+        <v>3586</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
+        <tr r="H8" s="8"/>
         <tr r="H8" s="7"/>
-        <tr r="H8" s="8"/>
       </tp>
     </main>
   </volType>
@@ -2081,10 +2059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:S85"/>
+  <dimension ref="B1:S88"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V79" sqref="V79"/>
+      <selection activeCell="C86" sqref="C86:R87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2110,11 +2088,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
     </row>
     <row r="2" spans="2:18" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:18" ht="13.5" x14ac:dyDescent="0.15">
@@ -5192,7 +5170,7 @@
         <v>160</v>
       </c>
       <c r="C70" s="114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D70" s="115">
         <v>43185</v>
@@ -5303,7 +5281,7 @@
         <v>43265</v>
       </c>
       <c r="F72" s="114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G72" s="114">
         <v>80</v>
@@ -5331,7 +5309,7 @@
       <c r="P72" s="114"/>
       <c r="Q72" s="114"/>
       <c r="R72" s="114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.15">
@@ -5388,7 +5366,7 @@
         <v>160</v>
       </c>
       <c r="C74" s="114" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D74" s="115">
         <v>43185</v>
@@ -5488,7 +5466,7 @@
         <v>161</v>
       </c>
       <c r="C76" s="114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" s="115">
         <v>43185</v>
@@ -5585,10 +5563,10 @@
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B79" s="114" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C79" s="114" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D79" s="115">
         <v>43189</v>
@@ -5636,10 +5614,10 @@
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B80" s="114" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C80" s="114" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D80" s="115">
         <v>43189</v>
@@ -5687,10 +5665,10 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B81" s="114" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C81" s="114" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D81" s="115">
         <v>43189</v>
@@ -5787,10 +5765,10 @@
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B83" s="114" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C83" s="114" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D83" s="115">
         <v>43189</v>
@@ -5838,10 +5816,10 @@
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B84" s="114" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C84" s="114" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D84" s="115">
         <v>43189</v>
@@ -5889,10 +5867,10 @@
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B85" s="114" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C85" s="114" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D85" s="115">
         <v>43189</v>
@@ -5937,6 +5915,125 @@
       <c r="R85" s="114" t="s">
         <v>151</v>
       </c>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B86" s="33"/>
+      <c r="C86" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J86" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M86" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N86" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O86" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P86" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B87" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" s="115">
+        <v>43192</v>
+      </c>
+      <c r="E87" s="115">
+        <v>43251</v>
+      </c>
+      <c r="F87" s="114">
+        <v>3500</v>
+      </c>
+      <c r="G87" s="114">
+        <v>59</v>
+      </c>
+      <c r="H87" s="114">
+        <v>0.15068493150684931</v>
+      </c>
+      <c r="I87" s="114">
+        <v>0</v>
+      </c>
+      <c r="J87" s="114">
+        <v>0.2</v>
+      </c>
+      <c r="K87" s="114">
+        <v>179.86005705782554</v>
+      </c>
+      <c r="L87" s="114"/>
+      <c r="M87" s="114">
+        <v>0</v>
+      </c>
+      <c r="N87" s="116">
+        <v>179.86005705782554</v>
+      </c>
+      <c r="O87" s="114">
+        <v>3375</v>
+      </c>
+      <c r="P87" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q87" s="114">
+        <v>1</v>
+      </c>
+      <c r="R87" s="114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="115"/>
+      <c r="E88" s="115"/>
+      <c r="F88" s="114"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114"/>
+      <c r="K88" s="114"/>
+      <c r="L88" s="114"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="116"/>
+      <c r="O88" s="114"/>
+      <c r="P88" s="114"/>
+      <c r="Q88" s="114"/>
+      <c r="R88" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5976,11 +6073,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -6221,75 +6318,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="140"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="G3" s="145" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="G3" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="L3" s="141" t="s">
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="L3" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="Q3" s="145" t="s">
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="Q3" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="G4" s="142" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="G4" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="L4" s="142" t="s">
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="L4" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="Q4" s="142" t="s">
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="Q4" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="144"/>
-      <c r="G5" s="139" t="s">
+      <c r="C5" s="134"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
+      <c r="G5" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="139"/>
+      <c r="H5" s="134"/>
       <c r="I5" s="107"/>
       <c r="J5" s="108"/>
       <c r="L5" s="105" t="s">
@@ -6298,360 +6395,360 @@
       <c r="M5" s="106"/>
       <c r="N5" s="107"/>
       <c r="O5" s="108"/>
-      <c r="Q5" s="139" t="s">
+      <c r="Q5" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="139"/>
+      <c r="R5" s="134"/>
       <c r="S5" s="107"/>
       <c r="T5" s="108"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="137" t="s">
+      <c r="C6" s="134"/>
+      <c r="D6" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="138"/>
-      <c r="G6" s="139" t="s">
+      <c r="E6" s="136"/>
+      <c r="G6" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="139"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
-      <c r="L6" s="139" t="s">
+      <c r="H6" s="134"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+      <c r="L6" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="139"/>
-      <c r="N6" s="137" t="s">
+      <c r="M6" s="134"/>
+      <c r="N6" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="138"/>
-      <c r="Q6" s="139" t="s">
+      <c r="O6" s="136"/>
+      <c r="Q6" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="139"/>
-      <c r="S6" s="137"/>
-      <c r="T6" s="138"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="136"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="137" t="s">
+      <c r="C7" s="134"/>
+      <c r="D7" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="G7" s="139" t="s">
+      <c r="E7" s="136"/>
+      <c r="G7" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="139"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="138"/>
-      <c r="L7" s="139" t="s">
+      <c r="H7" s="134"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="136"/>
+      <c r="L7" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="139"/>
-      <c r="N7" s="137" t="s">
+      <c r="M7" s="134"/>
+      <c r="N7" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="138"/>
-      <c r="Q7" s="139" t="s">
+      <c r="O7" s="136"/>
+      <c r="Q7" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="139"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="138"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="136"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="137">
+      <c r="C8" s="134"/>
+      <c r="D8" s="135">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="138"/>
-      <c r="G8" s="139" t="s">
+      <c r="E8" s="136"/>
+      <c r="G8" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="139"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138"/>
-      <c r="L8" s="139" t="s">
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="136"/>
+      <c r="L8" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="139"/>
-      <c r="N8" s="137">
+      <c r="M8" s="134"/>
+      <c r="N8" s="135">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="138"/>
-      <c r="Q8" s="139" t="s">
+      <c r="O8" s="136"/>
+      <c r="Q8" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="139"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="138"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="136"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="137" t="s">
+      <c r="C9" s="134"/>
+      <c r="D9" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="G9" s="139" t="s">
+      <c r="E9" s="136"/>
+      <c r="G9" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
-      <c r="L9" s="139" t="s">
+      <c r="H9" s="134"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="136"/>
+      <c r="L9" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="139"/>
-      <c r="N9" s="137" t="s">
+      <c r="M9" s="134"/>
+      <c r="N9" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="138"/>
-      <c r="Q9" s="139" t="s">
+      <c r="O9" s="136"/>
+      <c r="Q9" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="139"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="138"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="136"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="137">
+      <c r="C10" s="134"/>
+      <c r="D10" s="135">
         <v>43084</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="136"/>
       <c r="G10" s="109" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="109"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="138"/>
-      <c r="L10" s="139" t="s">
+      <c r="I10" s="135"/>
+      <c r="J10" s="136"/>
+      <c r="L10" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="139"/>
-      <c r="N10" s="137">
+      <c r="M10" s="134"/>
+      <c r="N10" s="135">
         <v>43084</v>
       </c>
-      <c r="O10" s="138"/>
+      <c r="O10" s="136"/>
       <c r="Q10" s="109" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="109"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="138"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="136"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="137">
+      <c r="C11" s="134"/>
+      <c r="D11" s="135">
         <v>3935</v>
       </c>
-      <c r="E11" s="138"/>
-      <c r="G11" s="139" t="s">
+      <c r="E11" s="136"/>
+      <c r="G11" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="139"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
-      <c r="L11" s="139" t="s">
+      <c r="H11" s="134"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="136"/>
+      <c r="L11" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="139"/>
-      <c r="N11" s="137">
+      <c r="M11" s="134"/>
+      <c r="N11" s="135">
         <v>3935</v>
       </c>
-      <c r="O11" s="138"/>
-      <c r="Q11" s="139" t="s">
+      <c r="O11" s="136"/>
+      <c r="Q11" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="139"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="138"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="136"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="137">
+      <c r="C12" s="134"/>
+      <c r="D12" s="135">
         <v>3800</v>
       </c>
-      <c r="E12" s="138"/>
-      <c r="G12" s="139" t="s">
+      <c r="E12" s="136"/>
+      <c r="G12" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="139"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="138"/>
-      <c r="L12" s="139" t="s">
+      <c r="H12" s="134"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="136"/>
+      <c r="L12" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="139"/>
-      <c r="N12" s="137">
+      <c r="M12" s="134"/>
+      <c r="N12" s="135">
         <v>3800</v>
       </c>
-      <c r="O12" s="138"/>
-      <c r="Q12" s="139" t="s">
+      <c r="O12" s="136"/>
+      <c r="Q12" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="139"/>
-      <c r="S12" s="137"/>
-      <c r="T12" s="138"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="136"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="137">
+      <c r="C13" s="134"/>
+      <c r="D13" s="135">
         <v>61</v>
       </c>
-      <c r="E13" s="138"/>
-      <c r="G13" s="139" t="s">
+      <c r="E13" s="136"/>
+      <c r="G13" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="139"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
-      <c r="L13" s="139" t="s">
+      <c r="H13" s="134"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="136"/>
+      <c r="L13" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="139"/>
-      <c r="N13" s="137">
+      <c r="M13" s="134"/>
+      <c r="N13" s="135">
         <v>3800</v>
       </c>
-      <c r="O13" s="138"/>
-      <c r="Q13" s="139" t="s">
+      <c r="O13" s="136"/>
+      <c r="Q13" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="139"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="138"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="136"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="137" t="s">
+      <c r="C14" s="134"/>
+      <c r="D14" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="G14" s="139" t="s">
+      <c r="E14" s="136"/>
+      <c r="G14" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="139"/>
+      <c r="H14" s="134"/>
       <c r="I14" s="110"/>
       <c r="J14" s="111"/>
-      <c r="L14" s="139" t="s">
+      <c r="L14" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="139"/>
-      <c r="N14" s="137">
+      <c r="M14" s="134"/>
+      <c r="N14" s="135">
         <v>61</v>
       </c>
-      <c r="O14" s="138"/>
-      <c r="Q14" s="139" t="s">
+      <c r="O14" s="136"/>
+      <c r="Q14" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="139"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="138"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="136"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="137">
+      <c r="C15" s="134"/>
+      <c r="D15" s="135">
         <v>5000</v>
       </c>
-      <c r="E15" s="138"/>
-      <c r="G15" s="139" t="s">
+      <c r="E15" s="136"/>
+      <c r="G15" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="139"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="138"/>
-      <c r="L15" s="139" t="s">
+      <c r="H15" s="134"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="136"/>
+      <c r="L15" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="139"/>
-      <c r="N15" s="137" t="s">
+      <c r="M15" s="134"/>
+      <c r="N15" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="138"/>
-      <c r="Q15" s="139" t="s">
+      <c r="O15" s="136"/>
+      <c r="Q15" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="139"/>
+      <c r="R15" s="134"/>
       <c r="S15" s="110"/>
       <c r="T15" s="111"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="135" t="s">
+      <c r="C16" s="131"/>
+      <c r="D16" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="136"/>
-      <c r="G16" s="134" t="s">
+      <c r="E16" s="133"/>
+      <c r="G16" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="134"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="136"/>
-      <c r="L16" s="139" t="s">
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="133"/>
+      <c r="L16" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="139"/>
-      <c r="N16" s="137">
+      <c r="M16" s="134"/>
+      <c r="N16" s="135">
         <v>5000</v>
       </c>
-      <c r="O16" s="138"/>
-      <c r="Q16" s="139" t="s">
+      <c r="O16" s="136"/>
+      <c r="Q16" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="139"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="138"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="136"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="134" t="s">
+      <c r="L17" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="134"/>
-      <c r="N17" s="135" t="s">
+      <c r="M17" s="131"/>
+      <c r="N17" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="136"/>
-      <c r="Q17" s="134" t="s">
+      <c r="O17" s="133"/>
+      <c r="Q17" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="134"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="136"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="133"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="112" t="s">
@@ -6681,1014 +6778,995 @@
       <c r="Y21" s="113"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="G22" s="132" t="s">
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="G22" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="L22" s="142" t="s">
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="L22" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="Q22" s="132" t="s">
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="Q22" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="V22" s="142" t="s">
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="V22" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="W22" s="142"/>
-      <c r="X22" s="142"/>
-      <c r="Y22" s="142"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="130"/>
+      <c r="Y22" s="130"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="131">
+      <c r="C23" s="121"/>
+      <c r="D23" s="127">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
-      </c>
-      <c r="E23" s="133"/>
-      <c r="G23" s="125" t="s">
+        <v>43192</v>
+      </c>
+      <c r="E23" s="129"/>
+      <c r="G23" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="125"/>
-      <c r="I23" s="131">
+      <c r="H23" s="121"/>
+      <c r="I23" s="127">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
-      </c>
-      <c r="J23" s="133"/>
-      <c r="L23" s="125" t="s">
+        <v>43192</v>
+      </c>
+      <c r="J23" s="129"/>
+      <c r="L23" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="M23" s="125"/>
-      <c r="N23" s="131">
+      <c r="M23" s="121"/>
+      <c r="N23" s="127">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
-      </c>
-      <c r="O23" s="133"/>
-      <c r="Q23" s="125" t="s">
+        <v>43192</v>
+      </c>
+      <c r="O23" s="129"/>
+      <c r="Q23" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="R23" s="125"/>
-      <c r="S23" s="131">
+      <c r="R23" s="121"/>
+      <c r="S23" s="127">
         <f ca="1">TODAY()-1</f>
-        <v>43188</v>
-      </c>
-      <c r="T23" s="133"/>
-      <c r="V23" s="125" t="s">
+        <v>43191</v>
+      </c>
+      <c r="T23" s="129"/>
+      <c r="V23" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="W23" s="125"/>
-      <c r="X23" s="131">
+      <c r="W23" s="121"/>
+      <c r="X23" s="127">
         <f ca="1">TODAY()-1</f>
-        <v>43188</v>
-      </c>
-      <c r="Y23" s="133"/>
+        <v>43191</v>
+      </c>
+      <c r="Y23" s="129"/>
     </row>
     <row r="24" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="126" t="s">
+      <c r="C24" s="121"/>
+      <c r="D24" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="127"/>
-      <c r="G24" s="125" t="s">
+      <c r="E24" s="123"/>
+      <c r="G24" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="125"/>
-      <c r="I24" s="126" t="s">
+      <c r="H24" s="121"/>
+      <c r="I24" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="127"/>
-      <c r="L24" s="125" t="s">
+      <c r="J24" s="123"/>
+      <c r="L24" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="125"/>
-      <c r="N24" s="126" t="s">
+      <c r="M24" s="121"/>
+      <c r="N24" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="127"/>
-      <c r="Q24" s="125" t="s">
+      <c r="O24" s="123"/>
+      <c r="Q24" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="R24" s="125"/>
-      <c r="S24" s="126" t="s">
+      <c r="R24" s="121"/>
+      <c r="S24" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="127"/>
-      <c r="V24" s="125" t="s">
+      <c r="T24" s="123"/>
+      <c r="V24" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="W24" s="125"/>
-      <c r="X24" s="126" t="s">
+      <c r="W24" s="121"/>
+      <c r="X24" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="Y24" s="127"/>
+      <c r="Y24" s="123"/>
     </row>
     <row r="25" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126" t="s">
+      <c r="C25" s="121"/>
+      <c r="D25" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="127"/>
-      <c r="G25" s="125" t="s">
+      <c r="E25" s="123"/>
+      <c r="G25" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="125"/>
-      <c r="I25" s="126" t="s">
+      <c r="H25" s="121"/>
+      <c r="I25" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="127"/>
-      <c r="L25" s="125" t="s">
+      <c r="J25" s="123"/>
+      <c r="L25" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="M25" s="125"/>
-      <c r="N25" s="126" t="s">
+      <c r="M25" s="121"/>
+      <c r="N25" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="O25" s="127"/>
-      <c r="Q25" s="125" t="s">
+      <c r="O25" s="123"/>
+      <c r="Q25" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="R25" s="125"/>
-      <c r="S25" s="126" t="s">
+      <c r="R25" s="121"/>
+      <c r="S25" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="T25" s="127"/>
-      <c r="V25" s="125" t="s">
+      <c r="T25" s="123"/>
+      <c r="V25" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="W25" s="125"/>
-      <c r="X25" s="126" t="s">
+      <c r="W25" s="121"/>
+      <c r="X25" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="Y25" s="127"/>
+      <c r="Y25" s="123"/>
     </row>
     <row r="26" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126">
+      <c r="C26" s="121"/>
+      <c r="D26" s="122">
         <f>D31*D33</f>
         <v>388800</v>
       </c>
-      <c r="E26" s="127"/>
-      <c r="G26" s="125" t="s">
+      <c r="E26" s="123"/>
+      <c r="G26" s="121" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="125"/>
-      <c r="I26" s="126">
+      <c r="H26" s="121"/>
+      <c r="I26" s="122">
         <f>I31*I33</f>
         <v>271800</v>
       </c>
-      <c r="J26" s="127"/>
-      <c r="L26" s="125" t="s">
+      <c r="J26" s="123"/>
+      <c r="L26" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="M26" s="125"/>
-      <c r="N26" s="126">
+      <c r="M26" s="121"/>
+      <c r="N26" s="122">
         <f>N31*N33</f>
         <v>275000</v>
       </c>
-      <c r="O26" s="127"/>
-      <c r="Q26" s="125" t="s">
+      <c r="O26" s="123"/>
+      <c r="Q26" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="R26" s="125"/>
-      <c r="S26" s="126">
+      <c r="R26" s="121"/>
+      <c r="S26" s="122">
         <f>S31*S33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="T26" s="127"/>
-      <c r="V26" s="125" t="s">
+      <c r="T26" s="123"/>
+      <c r="V26" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="W26" s="125"/>
-      <c r="X26" s="126">
+      <c r="W26" s="121"/>
+      <c r="X26" s="122">
         <f>X31*X33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="Y26" s="127"/>
+      <c r="Y26" s="123"/>
     </row>
     <row r="27" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="126" t="s">
+      <c r="C27" s="121"/>
+      <c r="D27" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="127"/>
-      <c r="G27" s="125" t="s">
+      <c r="E27" s="123"/>
+      <c r="G27" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="125"/>
-      <c r="I27" s="126" t="s">
+      <c r="H27" s="121"/>
+      <c r="I27" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="J27" s="127"/>
-      <c r="L27" s="125" t="s">
+      <c r="J27" s="123"/>
+      <c r="L27" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="M27" s="125"/>
-      <c r="N27" s="126" t="s">
+      <c r="M27" s="121"/>
+      <c r="N27" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="O27" s="127"/>
-      <c r="Q27" s="125" t="s">
+      <c r="O27" s="123"/>
+      <c r="Q27" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="R27" s="125"/>
-      <c r="S27" s="126" t="s">
+      <c r="R27" s="121"/>
+      <c r="S27" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="T27" s="127"/>
-      <c r="V27" s="125" t="s">
+      <c r="T27" s="123"/>
+      <c r="V27" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="W27" s="125"/>
-      <c r="X27" s="126" t="s">
+      <c r="W27" s="121"/>
+      <c r="X27" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="Y27" s="127"/>
+      <c r="Y27" s="123"/>
     </row>
     <row r="28" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="131">
+      <c r="C28" s="121"/>
+      <c r="D28" s="127">
         <v>43182</v>
       </c>
-      <c r="E28" s="127"/>
-      <c r="G28" s="125" t="s">
+      <c r="E28" s="123"/>
+      <c r="G28" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="125"/>
-      <c r="I28" s="131">
+      <c r="H28" s="121"/>
+      <c r="I28" s="127">
         <v>43182</v>
       </c>
-      <c r="J28" s="127"/>
-      <c r="L28" s="125" t="s">
+      <c r="J28" s="123"/>
+      <c r="L28" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="125"/>
-      <c r="N28" s="131">
+      <c r="M28" s="121"/>
+      <c r="N28" s="127">
         <v>43219</v>
       </c>
-      <c r="O28" s="127"/>
-      <c r="Q28" s="125" t="s">
+      <c r="O28" s="123"/>
+      <c r="Q28" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="R28" s="125"/>
-      <c r="S28" s="131">
+      <c r="R28" s="121"/>
+      <c r="S28" s="127">
         <v>43201</v>
       </c>
-      <c r="T28" s="127"/>
-      <c r="V28" s="125" t="s">
+      <c r="T28" s="123"/>
+      <c r="V28" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="W28" s="125"/>
-      <c r="X28" s="131">
+      <c r="W28" s="121"/>
+      <c r="X28" s="127">
         <v>43201</v>
       </c>
-      <c r="Y28" s="127"/>
+      <c r="Y28" s="123"/>
     </row>
     <row r="29" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="126">
+      <c r="C29" s="121"/>
+      <c r="D29" s="122">
         <v>3856</v>
       </c>
-      <c r="E29" s="127"/>
-      <c r="G29" s="125" t="s">
+      <c r="E29" s="123"/>
+      <c r="G29" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="125"/>
-      <c r="I29" s="126">
+      <c r="H29" s="121"/>
+      <c r="I29" s="122">
         <v>3856</v>
       </c>
-      <c r="J29" s="127"/>
-      <c r="L29" s="125" t="s">
+      <c r="J29" s="123"/>
+      <c r="L29" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="125"/>
-      <c r="N29" s="126">
+      <c r="M29" s="121"/>
+      <c r="N29" s="122">
         <v>3760</v>
       </c>
-      <c r="O29" s="127"/>
-      <c r="Q29" s="125" t="s">
+      <c r="O29" s="123"/>
+      <c r="Q29" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="R29" s="125"/>
-      <c r="S29" s="126">
+      <c r="R29" s="121"/>
+      <c r="S29" s="122">
         <v>524</v>
       </c>
-      <c r="T29" s="127"/>
-      <c r="V29" s="125" t="s">
+      <c r="T29" s="123"/>
+      <c r="V29" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="W29" s="125"/>
-      <c r="X29" s="126">
+      <c r="W29" s="121"/>
+      <c r="X29" s="122">
         <v>524</v>
       </c>
-      <c r="Y29" s="127"/>
+      <c r="Y29" s="123"/>
     </row>
     <row r="30" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="125"/>
-      <c r="D30" s="126">
+      <c r="C30" s="121"/>
+      <c r="D30" s="122">
         <v>3800</v>
       </c>
-      <c r="E30" s="127"/>
-      <c r="G30" s="125" t="s">
+      <c r="E30" s="123"/>
+      <c r="G30" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="125"/>
-      <c r="I30" s="126">
+      <c r="H30" s="121"/>
+      <c r="I30" s="122">
         <v>3930</v>
       </c>
-      <c r="J30" s="127"/>
-      <c r="L30" s="125" t="s">
+      <c r="J30" s="123"/>
+      <c r="L30" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="125"/>
-      <c r="N30" s="126">
+      <c r="M30" s="121"/>
+      <c r="N30" s="122">
         <v>3700</v>
       </c>
-      <c r="O30" s="127"/>
-      <c r="Q30" s="125" t="s">
+      <c r="O30" s="123"/>
+      <c r="Q30" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="R30" s="125"/>
-      <c r="S30" s="126">
+      <c r="R30" s="121"/>
+      <c r="S30" s="122">
         <v>524</v>
       </c>
-      <c r="T30" s="127"/>
-      <c r="V30" s="125" t="s">
+      <c r="T30" s="123"/>
+      <c r="V30" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="W30" s="125"/>
-      <c r="X30" s="126">
+      <c r="W30" s="121"/>
+      <c r="X30" s="122">
         <v>524</v>
       </c>
-      <c r="Y30" s="127"/>
+      <c r="Y30" s="123"/>
     </row>
     <row r="31" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B31" s="125" t="s">
+      <c r="B31" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126">
+      <c r="C31" s="121"/>
+      <c r="D31" s="122">
         <v>38.880000000000003</v>
       </c>
-      <c r="E31" s="127"/>
-      <c r="G31" s="125" t="s">
+      <c r="E31" s="123"/>
+      <c r="G31" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="H31" s="125"/>
-      <c r="I31" s="126">
+      <c r="H31" s="121"/>
+      <c r="I31" s="122">
         <v>27.18</v>
       </c>
-      <c r="J31" s="127"/>
-      <c r="L31" s="125" t="s">
+      <c r="J31" s="123"/>
+      <c r="L31" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="M31" s="125"/>
-      <c r="N31" s="126">
+      <c r="M31" s="121"/>
+      <c r="N31" s="122">
         <v>55</v>
       </c>
-      <c r="O31" s="127"/>
-      <c r="Q31" s="125" t="s">
+      <c r="O31" s="123"/>
+      <c r="Q31" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="125"/>
-      <c r="S31" s="126">
+      <c r="R31" s="121"/>
+      <c r="S31" s="122">
         <v>23.58</v>
       </c>
-      <c r="T31" s="127"/>
-      <c r="V31" s="125" t="s">
+      <c r="T31" s="123"/>
+      <c r="V31" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="W31" s="125"/>
-      <c r="X31" s="126">
+      <c r="W31" s="121"/>
+      <c r="X31" s="122">
         <v>23.58</v>
       </c>
-      <c r="Y31" s="127"/>
+      <c r="Y31" s="123"/>
     </row>
     <row r="32" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B32" s="125" t="s">
+      <c r="B32" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="125"/>
-      <c r="D32" s="126" t="s">
+      <c r="C32" s="121"/>
+      <c r="D32" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="127"/>
-      <c r="G32" s="125" t="s">
+      <c r="E32" s="123"/>
+      <c r="G32" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="H32" s="125"/>
-      <c r="I32" s="126" t="s">
+      <c r="H32" s="121"/>
+      <c r="I32" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="J32" s="127"/>
-      <c r="L32" s="125" t="s">
+      <c r="J32" s="123"/>
+      <c r="L32" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="M32" s="125"/>
-      <c r="N32" s="126" t="s">
+      <c r="M32" s="121"/>
+      <c r="N32" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="O32" s="127"/>
-      <c r="Q32" s="125" t="s">
+      <c r="O32" s="123"/>
+      <c r="Q32" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="R32" s="125"/>
-      <c r="S32" s="126" t="s">
+      <c r="R32" s="121"/>
+      <c r="S32" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="T32" s="127"/>
-      <c r="V32" s="125" t="s">
+      <c r="T32" s="123"/>
+      <c r="V32" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="W32" s="125"/>
-      <c r="X32" s="126" t="s">
+      <c r="W32" s="121"/>
+      <c r="X32" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="Y32" s="127"/>
+      <c r="Y32" s="123"/>
     </row>
     <row r="33" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="126">
+      <c r="C33" s="121"/>
+      <c r="D33" s="122">
         <v>10000</v>
       </c>
-      <c r="E33" s="127"/>
-      <c r="G33" s="125" t="s">
+      <c r="E33" s="123"/>
+      <c r="G33" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="125"/>
-      <c r="I33" s="126">
+      <c r="H33" s="121"/>
+      <c r="I33" s="122">
         <v>10000</v>
       </c>
-      <c r="J33" s="127"/>
-      <c r="L33" s="125" t="s">
+      <c r="J33" s="123"/>
+      <c r="L33" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="125"/>
-      <c r="N33" s="126">
+      <c r="M33" s="121"/>
+      <c r="N33" s="122">
         <v>5000</v>
       </c>
-      <c r="O33" s="127"/>
-      <c r="Q33" s="125" t="s">
+      <c r="O33" s="123"/>
+      <c r="Q33" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="R33" s="125"/>
-      <c r="S33" s="126">
+      <c r="R33" s="121"/>
+      <c r="S33" s="122">
         <v>10000</v>
       </c>
-      <c r="T33" s="127"/>
-      <c r="V33" s="125" t="s">
+      <c r="T33" s="123"/>
+      <c r="V33" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="W33" s="125"/>
-      <c r="X33" s="126">
+      <c r="W33" s="121"/>
+      <c r="X33" s="122">
         <v>10000</v>
       </c>
-      <c r="Y33" s="127"/>
+      <c r="Y33" s="123"/>
     </row>
     <row r="34" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="129" t="s">
+      <c r="C34" s="124"/>
+      <c r="D34" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="130"/>
-      <c r="G34" s="128" t="s">
+      <c r="E34" s="126"/>
+      <c r="G34" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="128"/>
-      <c r="I34" s="129" t="s">
+      <c r="H34" s="124"/>
+      <c r="I34" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="130"/>
-      <c r="L34" s="128" t="s">
+      <c r="J34" s="126"/>
+      <c r="L34" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="M34" s="128"/>
-      <c r="N34" s="129" t="s">
+      <c r="M34" s="124"/>
+      <c r="N34" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="O34" s="130"/>
-      <c r="Q34" s="128" t="s">
+      <c r="O34" s="126"/>
+      <c r="Q34" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="R34" s="128"/>
-      <c r="S34" s="129" t="s">
+      <c r="R34" s="124"/>
+      <c r="S34" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="T34" s="130"/>
-      <c r="V34" s="128" t="s">
+      <c r="T34" s="126"/>
+      <c r="V34" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="W34" s="128"/>
-      <c r="X34" s="129" t="s">
+      <c r="W34" s="124"/>
+      <c r="X34" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="Y34" s="130"/>
+      <c r="Y34" s="126"/>
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="132" t="s">
-        <v>237</v>
-      </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="G36" s="132" t="s">
-        <v>236</v>
-      </c>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="L36" s="132" t="s">
+      <c r="B36" s="128" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="G36" s="128" t="s">
+        <v>233</v>
+      </c>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="L36" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="132"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="125" t="s">
+      <c r="B37" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="131">
+      <c r="C37" s="121"/>
+      <c r="D37" s="127">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
-      </c>
-      <c r="E37" s="133"/>
-      <c r="G37" s="125" t="s">
+        <v>43192</v>
+      </c>
+      <c r="E37" s="129"/>
+      <c r="G37" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="125"/>
-      <c r="I37" s="131">
+      <c r="H37" s="121"/>
+      <c r="I37" s="127">
         <v>43188</v>
       </c>
-      <c r="J37" s="133"/>
-      <c r="L37" s="125" t="s">
+      <c r="J37" s="129"/>
+      <c r="L37" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="125"/>
-      <c r="N37" s="131"/>
-      <c r="O37" s="133"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="129"/>
     </row>
     <row r="38" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B38" s="125" t="s">
+      <c r="B38" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="125"/>
-      <c r="D38" s="126" t="s">
+      <c r="C38" s="121"/>
+      <c r="D38" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="127"/>
-      <c r="G38" s="125" t="s">
+      <c r="E38" s="123"/>
+      <c r="G38" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="125"/>
-      <c r="I38" s="126" t="s">
-        <v>235</v>
-      </c>
-      <c r="J38" s="127"/>
-      <c r="L38" s="125" t="s">
+      <c r="H38" s="121"/>
+      <c r="I38" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="J38" s="123"/>
+      <c r="L38" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="M38" s="125"/>
-      <c r="N38" s="126"/>
-      <c r="O38" s="127"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="123"/>
     </row>
     <row r="39" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B39" s="125" t="s">
+      <c r="B39" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="126" t="s">
-        <v>235</v>
-      </c>
-      <c r="E39" s="127"/>
-      <c r="G39" s="125" t="s">
+      <c r="C39" s="121"/>
+      <c r="D39" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="123"/>
+      <c r="G39" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="125"/>
-      <c r="I39" s="126" t="s">
+      <c r="H39" s="121"/>
+      <c r="I39" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="J39" s="127"/>
-      <c r="L39" s="125" t="s">
+      <c r="J39" s="123"/>
+      <c r="L39" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="M39" s="125"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="127"/>
+      <c r="M39" s="121"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="123"/>
     </row>
     <row r="40" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="125" t="s">
+      <c r="B40" s="121" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="126">
+      <c r="C40" s="121"/>
+      <c r="D40" s="122">
         <v>0</v>
       </c>
-      <c r="E40" s="127"/>
-      <c r="G40" s="125" t="s">
+      <c r="E40" s="123"/>
+      <c r="G40" s="121" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="125"/>
-      <c r="I40" s="126">
+      <c r="H40" s="121"/>
+      <c r="I40" s="122">
         <v>0</v>
       </c>
-      <c r="J40" s="127"/>
-      <c r="L40" s="125" t="s">
+      <c r="J40" s="123"/>
+      <c r="L40" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="M40" s="125"/>
-      <c r="N40" s="126"/>
-      <c r="O40" s="127"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="123"/>
     </row>
     <row r="41" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="125" t="s">
+      <c r="B41" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="126" t="s">
+      <c r="C41" s="121"/>
+      <c r="D41" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="127"/>
-      <c r="G41" s="125" t="s">
+      <c r="E41" s="123"/>
+      <c r="G41" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="125"/>
-      <c r="I41" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="J41" s="127"/>
-      <c r="L41" s="125" t="s">
+      <c r="H41" s="121"/>
+      <c r="I41" s="122" t="s">
+        <v>230</v>
+      </c>
+      <c r="J41" s="123"/>
+      <c r="L41" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="M41" s="125"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="127"/>
+      <c r="M41" s="121"/>
+      <c r="N41" s="122"/>
+      <c r="O41" s="123"/>
     </row>
     <row r="42" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="125" t="s">
+      <c r="B42" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="131">
+      <c r="C42" s="121"/>
+      <c r="D42" s="127">
         <v>43217</v>
       </c>
-      <c r="E42" s="127"/>
-      <c r="G42" s="125" t="s">
+      <c r="E42" s="123"/>
+      <c r="G42" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="125"/>
-      <c r="I42" s="131">
+      <c r="H42" s="121"/>
+      <c r="I42" s="127">
         <v>43217</v>
       </c>
-      <c r="J42" s="127"/>
-      <c r="L42" s="125" t="s">
+      <c r="J42" s="123"/>
+      <c r="L42" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="M42" s="125"/>
-      <c r="N42" s="131"/>
-      <c r="O42" s="127"/>
+      <c r="M42" s="121"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="123"/>
     </row>
     <row r="43" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="125" t="s">
+      <c r="B43" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="125"/>
-      <c r="D43" s="126">
+      <c r="C43" s="121"/>
+      <c r="D43" s="122">
         <v>3216</v>
       </c>
-      <c r="E43" s="127"/>
-      <c r="G43" s="125" t="s">
+      <c r="E43" s="123"/>
+      <c r="G43" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="H43" s="125"/>
-      <c r="I43" s="126">
+      <c r="H43" s="121"/>
+      <c r="I43" s="122">
         <v>3216</v>
       </c>
-      <c r="J43" s="127"/>
-      <c r="L43" s="125" t="s">
+      <c r="J43" s="123"/>
+      <c r="L43" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="125"/>
-      <c r="N43" s="126"/>
-      <c r="O43" s="127"/>
+      <c r="M43" s="121"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="123"/>
     </row>
     <row r="44" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B44" s="125" t="s">
+      <c r="B44" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="126">
+      <c r="C44" s="121"/>
+      <c r="D44" s="122">
         <f>D43*1.03</f>
         <v>3312.48</v>
       </c>
-      <c r="E44" s="127"/>
-      <c r="G44" s="125" t="s">
+      <c r="E44" s="123"/>
+      <c r="G44" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="125"/>
-      <c r="I44" s="126">
+      <c r="H44" s="121"/>
+      <c r="I44" s="122">
         <f>I43*0.97</f>
         <v>3119.52</v>
       </c>
-      <c r="J44" s="127"/>
-      <c r="L44" s="125" t="s">
+      <c r="J44" s="123"/>
+      <c r="L44" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="M44" s="125"/>
-      <c r="N44" s="126"/>
-      <c r="O44" s="127"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="123"/>
     </row>
     <row r="45" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B45" s="125" t="s">
+      <c r="B45" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="126">
+      <c r="C45" s="121"/>
+      <c r="D45" s="122">
         <v>0</v>
       </c>
-      <c r="E45" s="127"/>
-      <c r="G45" s="125" t="s">
+      <c r="E45" s="123"/>
+      <c r="G45" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="H45" s="125"/>
-      <c r="I45" s="126">
+      <c r="H45" s="121"/>
+      <c r="I45" s="122">
         <v>0</v>
       </c>
-      <c r="J45" s="127"/>
-      <c r="L45" s="125" t="s">
+      <c r="J45" s="123"/>
+      <c r="L45" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="M45" s="125"/>
-      <c r="N45" s="126"/>
-      <c r="O45" s="127"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="122"/>
+      <c r="O45" s="123"/>
     </row>
     <row r="46" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="125" t="s">
+      <c r="B46" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="126" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" s="127"/>
-      <c r="G46" s="125" t="s">
+      <c r="C46" s="121"/>
+      <c r="D46" s="122" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="123"/>
+      <c r="G46" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="125"/>
-      <c r="I46" s="126" t="s">
-        <v>234</v>
-      </c>
-      <c r="J46" s="127"/>
-      <c r="L46" s="125" t="s">
+      <c r="H46" s="121"/>
+      <c r="I46" s="122" t="s">
+        <v>231</v>
+      </c>
+      <c r="J46" s="123"/>
+      <c r="L46" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="M46" s="125"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="127"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="122"/>
+      <c r="O46" s="123"/>
     </row>
     <row r="47" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B47" s="125" t="s">
+      <c r="B47" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="125"/>
-      <c r="D47" s="126">
+      <c r="C47" s="121"/>
+      <c r="D47" s="122">
         <v>3600</v>
       </c>
-      <c r="E47" s="127"/>
-      <c r="G47" s="125" t="s">
+      <c r="E47" s="123"/>
+      <c r="G47" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="H47" s="125"/>
-      <c r="I47" s="126">
+      <c r="H47" s="121"/>
+      <c r="I47" s="122">
         <v>3000</v>
       </c>
-      <c r="J47" s="127"/>
-      <c r="L47" s="125" t="s">
+      <c r="J47" s="123"/>
+      <c r="L47" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="M47" s="125"/>
-      <c r="N47" s="126"/>
-      <c r="O47" s="127"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="122"/>
+      <c r="O47" s="123"/>
     </row>
     <row r="48" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="128" t="s">
+      <c r="B48" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="128"/>
-      <c r="D48" s="129" t="s">
+      <c r="C48" s="124"/>
+      <c r="D48" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="130"/>
-      <c r="G48" s="128" t="s">
+      <c r="E48" s="126"/>
+      <c r="G48" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="128"/>
-      <c r="I48" s="129" t="s">
+      <c r="H48" s="124"/>
+      <c r="I48" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="130"/>
-      <c r="L48" s="128" t="s">
+      <c r="J48" s="126"/>
+      <c r="L48" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="M48" s="128"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="130"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="125"/>
+      <c r="O48" s="126"/>
     </row>
     <row r="49" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="301">
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -7713,135 +7791,154 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7852,10 +7949,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7883,10 +7980,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="146"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -8017,12 +8114,12 @@
         <v>22</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" ref="E8:E21" ca="1" si="0">TODAY()</f>
-        <v>43189</v>
+        <f t="shared" ref="E8:E9" ca="1" si="0">TODAY()</f>
+        <v>43192</v>
       </c>
       <c r="F8" s="21">
         <f ca="1">E8+H8</f>
-        <v>43369</v>
+        <v>43372</v>
       </c>
       <c r="G8" s="19">
         <v>100</v>
@@ -8092,11 +8189,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="1">E9+H9</f>
-        <v>43280</v>
+        <v>43283</v>
       </c>
       <c r="G9" s="10">
         <v>11500</v>
@@ -8116,20 +8213,20 @@
       </c>
       <c r="L9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-16.099373677287758</v>
+        <v>-13.544090247543124</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="13">
-        <f t="shared" ref="N9:N34" si="2">M9/10000*I9*P9</f>
+        <f t="shared" ref="N9:N10" si="2">M9/10000*I9*P9</f>
         <v>0</v>
       </c>
       <c r="O9" s="13">
         <f>IF(L9&lt;=0,ABS(L9)+N9,L9-N9)</f>
-        <v>16.099373677287758</v>
+        <v>13.544090247543124</v>
       </c>
       <c r="P9" s="11">
         <f>RTD("wdf.rtq",,D9,"LastPrice")</f>
-        <v>13980</v>
+        <v>14080</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>85</v>
@@ -8143,19 +8240,19 @@
       </c>
       <c r="T9" s="14">
         <f t="shared" ref="T9" si="4">O9/P9</f>
-        <v>1.151600406100698E-3</v>
+        <v>9.6193822780846054E-4</v>
       </c>
       <c r="U9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>2.7621116126397283E-2</v>
+        <v>2.3578565964044174E-2</v>
       </c>
       <c r="V9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-4.4333446583802072</v>
+        <v>-3.9126711969257144</v>
       </c>
       <c r="X9" s="6">
         <f>2000*U9</f>
-        <v>55.242232252794565</v>
+        <v>47.157131928088347</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
@@ -8173,159 +8270,151 @@
         <v>161</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="E11" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43189</v>
+        <f t="shared" ref="E11" ca="1" si="5">TODAY()</f>
+        <v>43192</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" ref="F11:F12" ca="1" si="5">E11+H11</f>
-        <v>43204</v>
+        <f t="shared" ref="F11" ca="1" si="6">E11+H11</f>
+        <v>43251</v>
       </c>
       <c r="G11" s="10">
-        <v>278.35000000000002</v>
+        <v>3500</v>
       </c>
       <c r="H11" s="10">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I11" s="12">
-        <f>(H11-2)/365</f>
-        <v>3.5616438356164383E-2</v>
+        <f>(H11-4)/365</f>
+        <v>0.15068493150684931</v>
       </c>
       <c r="J11" s="12">
         <v>0</v>
       </c>
       <c r="K11" s="9">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="L11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.15101243808671683</v>
+        <v>185.89420879382851</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N11" si="7">M11/10000*I11*P11</f>
         <v>0</v>
       </c>
       <c r="O11" s="13">
         <f>IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>0.15101243808671683</v>
+        <v>185.89420879382851</v>
       </c>
       <c r="P11" s="11">
-        <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>271.55</v>
+        <v>3366</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" ref="R11:R12" si="6">IF(S11="中金买入",1,-1)</f>
+        <f t="shared" ref="R11" si="8">IF(S11="中金买入",1,-1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T11" s="14">
-        <f t="shared" ref="T11:T12" si="7">O11/P11</f>
-        <v>5.5611282668649171E-4</v>
+        <f t="shared" ref="T11" si="9">O11/P11</f>
+        <v>5.5227037668992431E-2</v>
       </c>
       <c r="U11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>7.3802380735088491E-2</v>
+        <v>-0.67663813313174614</v>
       </c>
       <c r="V11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>7.1376093822320463E-2</v>
+        <v>4.6652032074798626</v>
       </c>
       <c r="X11" s="6">
         <f>2000*U11</f>
-        <v>147.60476147017698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="13" t="s">
+        <v>-1353.2762662634923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="34"/>
+      <c r="B13" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43189</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>43204</v>
-      </c>
-      <c r="G12" s="10">
-        <v>274.95</v>
-      </c>
-      <c r="H12" s="10">
-        <v>15</v>
-      </c>
-      <c r="I12" s="12">
-        <f>(H12-2)/365</f>
-        <v>3.5616438356164383E-2</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="D13" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:E17" ca="1" si="10">TODAY()</f>
+        <v>43192</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13:F15" ca="1" si="11">E13+H13</f>
+        <v>43219</v>
+      </c>
+      <c r="G13" s="10">
+        <v>3700</v>
+      </c>
+      <c r="H13" s="10">
+        <v>27</v>
+      </c>
+      <c r="I13" s="12">
+        <f>H13/365</f>
+        <v>7.3972602739726029E-2</v>
+      </c>
+      <c r="J13" s="12">
         <v>0</v>
       </c>
-      <c r="K12" s="9">
-        <v>0.09</v>
-      </c>
-      <c r="L12" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>4.0244085995800276</v>
-      </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="13">
-        <f t="shared" si="2"/>
+      <c r="K13" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L13" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>-364.98442741943518</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="13">
+        <f t="shared" ref="N13:N15" si="12">M13/10000*I13*P13</f>
         <v>0</v>
       </c>
-      <c r="O12" s="13">
-        <f>IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
-        <v>4.0244085995800276</v>
-      </c>
-      <c r="P12" s="11">
-        <f>RTD("wdf.rtq",,D12,"LastPrice")</f>
-        <v>271.55</v>
-      </c>
-      <c r="Q12" s="10" t="s">
+      <c r="O13" s="13">
+        <f>IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
+        <v>364.98442741943518</v>
+      </c>
+      <c r="P13" s="11">
+        <v>3350</v>
+      </c>
+      <c r="Q13" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T12" s="14">
-        <f t="shared" si="7"/>
-        <v>1.4820138462824628E-2</v>
-      </c>
-      <c r="U12" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-0.76494951456567151</v>
-      </c>
-      <c r="V12" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.15675940425464319</v>
-      </c>
-      <c r="X12" s="6">
-        <f>2000*U12</f>
-        <v>-1529.899029131343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="N13" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="R13" s="10">
+        <f t="shared" ref="R13:R15" si="13">IF(S13="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="14">
+        <f t="shared" ref="T13:T15" si="14">O13/P13</f>
+        <v>0.10895057534908513</v>
+      </c>
+      <c r="U13" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>0.87912000115011324</v>
+      </c>
+      <c r="V13" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>-1.8146651901799942</v>
+      </c>
+      <c r="X13" s="6">
+        <f>2000*U13</f>
+        <v>1758.2400023002265</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8336,74 +8425,74 @@
       <c r="C14" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="10">
-        <v>399905</v>
+      <c r="D14" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43189</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43192</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" ca="1" si="8">E14+H14</f>
-        <v>43280</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>43203</v>
       </c>
       <c r="G14" s="10">
-        <v>100</v>
+        <v>3720</v>
       </c>
       <c r="H14" s="10">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="I14" s="12">
-        <f>(H14)/365</f>
-        <v>0.24931506849315069</v>
+        <f>H14/365</f>
+        <v>3.0136986301369864E-2</v>
       </c>
       <c r="J14" s="12">
         <v>0</v>
       </c>
       <c r="K14" s="9">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>4.7541211825919376</v>
+        <v>-371.28896943214249</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O14" s="13">
         <f>IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>4.7541211825919376</v>
+        <v>371.28896943214249</v>
       </c>
       <c r="P14" s="11">
-        <v>100</v>
+        <v>3350</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" ref="R14:R15" si="9">IF(S14="中金买入",1,-1)</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>-1</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="T14" s="14">
-        <f t="shared" ref="T14:T15" si="10">O14/P14</f>
-        <v>4.7541211825919374E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.11083252818869925</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>0.52128365244357155</v>
+        <v>0.97586961753677315</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>0.19785123646097347</v>
+        <v>-0.32322541754433587</v>
       </c>
       <c r="X14" s="6">
         <f>2000*U14</f>
-        <v>1042.5673048871431</v>
+        <v>1951.7392350735463</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8414,102 +8503,75 @@
       <c r="C15" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="10">
-        <v>399905</v>
+      <c r="D15" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43189</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43192</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>43280</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>43203</v>
       </c>
       <c r="G15" s="10">
-        <v>113.5</v>
+        <v>3650</v>
       </c>
       <c r="H15" s="10">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="I15" s="12">
-        <f>(H15)/365</f>
-        <v>0.24931506849315069</v>
+        <f>H15/365</f>
+        <v>3.0136986301369864E-2</v>
       </c>
       <c r="J15" s="12">
         <v>0</v>
       </c>
       <c r="K15" s="9">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="L15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.94781788210939943</v>
+        <v>-303.60292925502972</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O15" s="13">
         <f>IF(L15&lt;=0,ABS(L15)+N15,L15-N15)</f>
-        <v>0.94781788210939943</v>
+        <v>303.60292925502972</v>
       </c>
       <c r="P15" s="11">
-        <v>100</v>
+        <v>3350</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="S15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T15" s="14">
-        <f t="shared" si="10"/>
-        <v>9.4781788210939952E-3</v>
+        <f t="shared" si="14"/>
+        <v>9.0627740076128269E-2</v>
       </c>
       <c r="U15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.15863713323662765</v>
+        <v>0.94689750058023492</v>
       </c>
       <c r="V15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.12052913749838368</v>
+        <v>-0.62336831205107046</v>
       </c>
       <c r="X15" s="6">
         <f>2000*U15</f>
-        <v>-317.2742664732553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
+        <v>1893.7950011604698</v>
+      </c>
     </row>
     <row r="17" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
@@ -8520,1110 +8582,81 @@
         <v>161</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43189</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43192</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" ref="F17:F18" ca="1" si="11">E17+H17</f>
-        <v>43220</v>
+        <f t="shared" ref="F17" ca="1" si="15">E17+H17</f>
+        <v>43241</v>
       </c>
       <c r="G17" s="10">
-        <v>52500</v>
+        <v>11500</v>
       </c>
       <c r="H17" s="10">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I17" s="12">
-        <f>(H17-2)/365</f>
-        <v>7.9452054794520555E-2</v>
+        <f>(H17-4)/365</f>
+        <v>0.12328767123287671</v>
       </c>
       <c r="J17" s="12">
         <v>0</v>
       </c>
       <c r="K17" s="9">
-        <v>0.155</v>
+        <v>0.11</v>
       </c>
       <c r="L17" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>200.86556216884856</v>
+        <v>-3.1726110465246475E-5</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N17" si="16">M17/10000*I17*P17</f>
         <v>0</v>
       </c>
       <c r="O17" s="13">
         <f>IF(L17&lt;=0,ABS(L17)+N17,L17-N17)</f>
-        <v>200.86556216884856</v>
+        <v>3.1726110465246475E-5</v>
       </c>
       <c r="P17" s="11">
         <f>RTD("wdf.rtq",,D17,"LastPrice")</f>
-        <v>50340</v>
+        <v>13930</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="R17" s="10">
-        <f t="shared" ref="R17:R18" si="12">IF(S17="中金买入",1,-1)</f>
-        <v>1</v>
+        <f t="shared" ref="R17" si="17">IF(S17="中金买入",1,-1)</f>
+        <v>-1</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="T17" s="14">
-        <f t="shared" ref="T17:T18" si="13">O17/P17</f>
-        <v>3.9901780327542425E-3</v>
+        <f t="shared" ref="T17" si="18">O17/P17</f>
+        <v>2.2775384397161861E-9</v>
       </c>
       <c r="U17" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>0.1733920239530562</v>
+        <v>3.129973965339955E-7</v>
       </c>
       <c r="V17" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>36.293516009458472</v>
+        <v>-1.4372498370699628E-4</v>
       </c>
       <c r="X17" s="6">
         <f>2000*U17</f>
-        <v>346.78404790611239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43189</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>43220</v>
-      </c>
-      <c r="G18" s="10">
-        <v>52000</v>
-      </c>
-      <c r="H18" s="10">
-        <v>31</v>
-      </c>
-      <c r="I18" s="12">
-        <f>(H18-2)/365</f>
-        <v>7.9452054794520555E-2</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0.155</v>
-      </c>
-      <c r="L18" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>296.46427965598559</v>
-      </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="13">
-        <f>IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>296.46427965598559</v>
-      </c>
-      <c r="P18" s="11">
-        <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>50340</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="R18" s="10">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T18" s="14">
-        <f t="shared" si="13"/>
-        <v>5.8892387694871986E-3</v>
-      </c>
-      <c r="U18" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>0.23516063447459601</v>
-      </c>
-      <c r="V18" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>43.548864474449147</v>
-      </c>
-      <c r="X18" s="6">
-        <f>2000*U18</f>
-        <v>470.32126894919202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="N19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
-      <c r="B20" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43189</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" ca="1" si="14">E20+H20</f>
-        <v>43220</v>
-      </c>
-      <c r="G20" s="10">
-        <f>P20*0.97</f>
-        <v>3289.27</v>
-      </c>
-      <c r="H20" s="10">
-        <v>31</v>
-      </c>
-      <c r="I20" s="12">
-        <f>(H20-2)/365</f>
-        <v>7.9452054794520555E-2</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="L20" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>44.794005102061419</v>
-      </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="13">
-        <f>IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>44.794005102061419</v>
-      </c>
-      <c r="P20" s="11">
-        <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>3391</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R20" s="10">
-        <f t="shared" ref="R20:R21" si="15">IF(S20="中金买入",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T20" s="14">
-        <f t="shared" ref="T20:T21" si="16">O20/P20</f>
-        <v>1.3209674167520323E-2</v>
-      </c>
-      <c r="U20" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.30725981392834001</v>
-      </c>
-      <c r="V20" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>3.3553757030908287</v>
-      </c>
-      <c r="X20" s="6">
-        <f>2000*U20</f>
-        <v>-614.51962785668002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
-      <c r="B21" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43189</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" ca="1" si="14"/>
-        <v>43220</v>
-      </c>
-      <c r="G21" s="10">
-        <f>P21*1.03</f>
-        <v>3492.73</v>
-      </c>
-      <c r="H21" s="10">
-        <v>31</v>
-      </c>
-      <c r="I21" s="12">
-        <f>(H21-2)/365</f>
-        <v>7.9452054794520555E-2</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="L21" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>36.872482742314219</v>
-      </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="13">
-        <f>IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>36.872482742314219</v>
-      </c>
-      <c r="P21" s="11">
-        <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3391</v>
-      </c>
-      <c r="Q21" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="R21" s="10">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T21" s="14">
-        <f t="shared" si="16"/>
-        <v>1.0873631006285526E-2</v>
-      </c>
-      <c r="U21" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>0.30940498479026246</v>
-      </c>
-      <c r="V21" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>3.3652079459236575</v>
-      </c>
-      <c r="X21" s="6">
-        <f>2000*U21</f>
-        <v>618.80996958052492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="N22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="34"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-    </row>
-    <row r="24" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
-      <c r="B24" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" ref="E24:E25" ca="1" si="17">TODAY()</f>
-        <v>43189</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" ref="F24:F25" ca="1" si="18">E24+H24</f>
-        <v>43220</v>
-      </c>
-      <c r="G24" s="10">
-        <v>410</v>
-      </c>
-      <c r="H24" s="10">
-        <v>31</v>
-      </c>
-      <c r="I24" s="12">
-        <f>(H24-2)/365</f>
-        <v>7.9452054794520555E-2</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="L24" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>1.1760990420970749</v>
-      </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="13">
-        <f>IF(L24&lt;=0,ABS(L24)+N24,L24-N24)</f>
-        <v>1.1760990420970749</v>
-      </c>
-      <c r="P24" s="11">
-        <v>466.5</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R24" s="10">
-        <f t="shared" ref="R24:R25" si="19">IF(S24="中金买入",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T24" s="14">
-        <f t="shared" ref="T24:T25" si="20">O24/P24</f>
-        <v>2.5211126304331725E-3</v>
-      </c>
-      <c r="U24" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>-6.4009643872431354E-2</v>
-      </c>
-      <c r="V24" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>0.16463972353687595</v>
-      </c>
-      <c r="X24" s="6">
-        <f>2000*U24</f>
-        <v>-128.01928774486271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
-      <c r="B25" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>43189</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" ca="1" si="18"/>
-        <v>43220</v>
-      </c>
-      <c r="G25" s="10">
-        <v>466.5</v>
-      </c>
-      <c r="H25" s="10">
-        <v>31</v>
-      </c>
-      <c r="I25" s="12">
-        <f>(H25-2)/365</f>
-        <v>7.9452054794520555E-2</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="L25" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>-16.231091055777938</v>
-      </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="13">
-        <f>IF(L25&lt;=0,ABS(L25)+N25,L25-N25)</f>
-        <v>16.231091055777938</v>
-      </c>
-      <c r="P25" s="11">
-        <v>466.5</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" s="10">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T25" s="14">
-        <f t="shared" si="20"/>
-        <v>3.4793335596522909E-2</v>
-      </c>
-      <c r="U25" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>-0.51660277765677165</v>
-      </c>
-      <c r="V25" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>-0.52325034933770098</v>
-      </c>
-      <c r="X25" s="6">
-        <f>2000*U25</f>
-        <v>-1033.2055553135433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="N26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="13"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-    </row>
-    <row r="28" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" ref="E28" ca="1" si="21">TODAY()</f>
-        <v>43189</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" ref="F28" ca="1" si="22">E28+H28</f>
-        <v>43220</v>
-      </c>
-      <c r="G28" s="10">
-        <v>500</v>
-      </c>
-      <c r="H28" s="10">
-        <v>31</v>
-      </c>
-      <c r="I28" s="12">
-        <f>(H28)/365</f>
-        <v>8.4931506849315067E-2</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="L28" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>2.9027889728547436</v>
-      </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="13">
-        <f>IF(L28&lt;=0,ABS(L28)+N28,L28-N28)</f>
-        <v>2.9027889728547436</v>
-      </c>
-      <c r="P28" s="123">
-        <v>454.5</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R28" s="10">
-        <f t="shared" ref="R28" si="23">IF(S28="中金买入",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T28" s="14">
-        <f t="shared" ref="T28" si="24">O28/P28</f>
-        <v>6.386774417722208E-3</v>
-      </c>
-      <c r="U28" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>0.14716756704125089</v>
-      </c>
-      <c r="V28" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>0.30462645997745597</v>
-      </c>
-      <c r="X28" s="6">
-        <f>2000*U28</f>
-        <v>294.33513408250178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="L29" s="120"/>
-      <c r="N29" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="34"/>
-      <c r="B30" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" ref="E30:E36" ca="1" si="25">TODAY()</f>
-        <v>43189</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" ref="F30" ca="1" si="26">E30+H30</f>
-        <v>43220</v>
-      </c>
-      <c r="G30" s="10">
-        <v>400</v>
-      </c>
-      <c r="H30" s="10">
-        <v>31</v>
-      </c>
-      <c r="I30" s="12">
-        <f>(H30-2)/365</f>
-        <v>7.9452054794520555E-2</v>
-      </c>
-      <c r="J30" s="12">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L30" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>0.40866020117510615</v>
-      </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="13">
-        <f>IF(L30&lt;=0,ABS(L30)+N30,L30-N30)</f>
-        <v>0.40866020117510615</v>
-      </c>
-      <c r="P30" s="11">
-        <v>466.5</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R30" s="10">
-        <f t="shared" ref="R30" si="27">IF(S30="中金买入",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="S30" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T30" s="14">
-        <f t="shared" ref="T30" si="28">O30/P30</f>
-        <v>8.7601329297986317E-4</v>
-      </c>
-      <c r="U30" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-2.7240793360761018E-2</v>
-      </c>
-      <c r="V30" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>8.2580716552905109E-2</v>
-      </c>
-      <c r="X30" s="6">
-        <f>2000*U30</f>
-        <v>-54.481586721522035</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="34"/>
-      <c r="B31" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>43189</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" ref="F31:F32" ca="1" si="29">E31+H31</f>
-        <v>43250</v>
-      </c>
-      <c r="G31" s="10">
-        <v>400</v>
-      </c>
-      <c r="H31" s="10">
-        <v>61</v>
-      </c>
-      <c r="I31" s="12">
-        <f>(H31-4)/365</f>
-        <v>0.15616438356164383</v>
-      </c>
-      <c r="J31" s="12">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="L31" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>1.9156242486539838</v>
-      </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="13">
-        <f>IF(L31&lt;=0,ABS(L31)+N31,L31-N31)</f>
-        <v>1.9156242486539838</v>
-      </c>
-      <c r="P31" s="11">
-        <v>466.5</v>
-      </c>
-      <c r="Q31" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R31" s="10">
-        <f t="shared" ref="R31:R32" si="30">IF(S31="中金买入",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="S31" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T31" s="14">
-        <f t="shared" ref="T31:T32" si="31">O31/P31</f>
-        <v>4.1063756669967501E-3</v>
-      </c>
-      <c r="U31" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-7.729381587573414E-2</v>
-      </c>
-      <c r="V31" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>0.26669332810104862</v>
-      </c>
-      <c r="X31" s="6">
-        <f>2000*U31</f>
-        <v>-154.58763175146828</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="34"/>
-      <c r="B32" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>43189</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>43280</v>
-      </c>
-      <c r="G32" s="10">
-        <v>400</v>
-      </c>
-      <c r="H32" s="10">
-        <v>91</v>
-      </c>
-      <c r="I32" s="12">
-        <f>(H32-4)/365</f>
-        <v>0.23835616438356164</v>
-      </c>
-      <c r="J32" s="12">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L32" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>3.8312252844840344</v>
-      </c>
-      <c r="M32" s="15"/>
-      <c r="N32" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="13">
-        <f>IF(L32&lt;=0,ABS(L32)+N32,L32-N32)</f>
-        <v>3.8312252844840344</v>
-      </c>
-      <c r="P32" s="11">
-        <v>466.5</v>
-      </c>
-      <c r="Q32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R32" s="10">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="S32" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T32" s="14">
-        <f t="shared" si="31"/>
-        <v>8.2127015744566656E-3</v>
-      </c>
-      <c r="U32" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-0.1158055263207558</v>
-      </c>
-      <c r="V32" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>0.44345056703517471</v>
-      </c>
-      <c r="X32" s="6">
-        <f>2000*U32</f>
-        <v>-231.61105264151161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="N33" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="34"/>
-      <c r="B34" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>43189</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" ref="F34:F36" ca="1" si="32">E34+H34</f>
-        <v>43220</v>
-      </c>
-      <c r="G34" s="10">
-        <v>430</v>
-      </c>
-      <c r="H34" s="10">
-        <v>31</v>
-      </c>
-      <c r="I34" s="12">
-        <f>(H34-2)/365</f>
-        <v>7.9452054794520555E-2</v>
-      </c>
-      <c r="J34" s="12">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L34" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>3.0630070721132938</v>
-      </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="13">
-        <f t="shared" ref="N34:N36" si="33">M34/10000*I34*P34</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="13">
-        <f>IF(L34&lt;=0,ABS(L34)+N34,L34-N34)</f>
-        <v>3.0630070721132938</v>
-      </c>
-      <c r="P34" s="11">
-        <v>466.5</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R34" s="10">
-        <f t="shared" ref="R34:R36" si="34">IF(S34="中金买入",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T34" s="14">
-        <f t="shared" ref="T34:T36" si="35">O34/P34</f>
-        <v>6.5659315586565781E-3</v>
-      </c>
-      <c r="U34" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>-0.14949829083619193</v>
-      </c>
-      <c r="V34" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>0.30562133273009806</v>
-      </c>
-      <c r="X34" s="6">
-        <f>2000*U34</f>
-        <v>-298.99658167238385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="34"/>
-      <c r="B35" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>43189</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>43250</v>
-      </c>
-      <c r="G35" s="10">
-        <v>430</v>
-      </c>
-      <c r="H35" s="10">
-        <v>61</v>
-      </c>
-      <c r="I35" s="12">
-        <f>(H35-4)/365</f>
-        <v>0.15616438356164383</v>
-      </c>
-      <c r="J35" s="12">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="L35" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>6.8980537589282562</v>
-      </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="13">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="13">
-        <f>IF(L35&lt;=0,ABS(L35)+N35,L35-N35)</f>
-        <v>6.8980537589282562</v>
-      </c>
-      <c r="P35" s="11">
-        <v>466.5</v>
-      </c>
-      <c r="Q35" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R35" s="10">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="S35" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T35" s="14">
-        <f t="shared" si="35"/>
-        <v>1.4786824777981256E-2</v>
-      </c>
-      <c r="U35" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>-0.21710170217801306</v>
-      </c>
-      <c r="V35" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>0.54083650651327986</v>
-      </c>
-      <c r="X35" s="6">
-        <f>2000*U35</f>
-        <v>-434.20340435602611</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="34"/>
-      <c r="B36" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>43189</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>43280</v>
-      </c>
-      <c r="G36" s="10">
-        <v>420</v>
-      </c>
-      <c r="H36" s="10">
-        <v>91</v>
-      </c>
-      <c r="I36" s="12">
-        <f>(H36-4)/365</f>
-        <v>0.23835616438356164</v>
-      </c>
-      <c r="J36" s="12">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L36" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>7.6442637788591412</v>
-      </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="13">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="13">
-        <f>IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
-        <v>7.6442637788591412</v>
-      </c>
-      <c r="P36" s="11">
-        <v>466.5</v>
-      </c>
-      <c r="Q36" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R36" s="10">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="S36" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T36" s="14">
-        <f t="shared" si="35"/>
-        <v>1.6386417532388297E-2</v>
-      </c>
-      <c r="U36" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-0.20048579635911778</v>
-      </c>
-      <c r="V36" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>0.63714216819916203</v>
-      </c>
-      <c r="X36" s="6">
-        <f>2000*U36</f>
-        <v>-400.97159271823557</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="C38" s="121"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="D40" s="122"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="D42" s="122"/>
+        <v>6.25994793067991E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U18" s="6">
+        <f>50*U11</f>
+        <v>-33.831906656587307</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9639,19 +8672,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S11:S12 S27:S28 S14:S18 S20:S21 S23:S25 S30:S32 S34:S36</xm:sqref>
+          <xm:sqref>S8:S9 S11 S13:S15 S17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q11:Q12 Q27:Q28 Q14:Q18 Q20:Q21 Q23:Q25 Q30:Q32 Q34:Q36</xm:sqref>
+          <xm:sqref>Q8:Q9 Q11 Q13:Q15 Q17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C11:C12 C27:C28 C14:C18 C20:C21 C23:C25 C30:C32 C34:C36</xm:sqref>
+          <xm:sqref>C8:C9 C11 C13:C15 C17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9665,7 +8698,7 @@
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9695,10 +8728,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="146"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="29" t="s">
@@ -9825,11 +8858,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -9893,11 +8926,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -9964,11 +8997,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -10032,11 +9065,11 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G11" s="44">
         <v>3300</v>
@@ -10056,17 +9089,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-48.038310727125918</v>
+        <v>-57.778861499752338</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" si="0"/>
-        <v>48.038310727125918</v>
+        <v>57.778861499752338</v>
       </c>
       <c r="P11" s="117">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -10081,11 +9114,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.3243953431706359</v>
+        <v>0.37181951340699015</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.4923402308500044</v>
+        <v>-3.6417114250854183</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -10102,11 +9135,11 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ca="1" si="1"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="1"/>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G12" s="52">
         <v>4000</v>
@@ -10128,17 +9161,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.12202023848192489</v>
+        <v>7.3348492663139808E-2</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="0"/>
-        <v>0.12202023848192489</v>
+        <v>7.3348492663139808E-2</v>
       </c>
       <c r="P12" s="95">
         <f>P11</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -10153,11 +9186,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.1690364068849277E-3</v>
+        <v>1.3630049016111201E-3</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>6.7547298915357601E-2</v>
+        <v>4.4110637539227282E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10174,11 +9207,11 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="1"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="1"/>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
@@ -10196,7 +9229,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-47.916290488643995</v>
+        <v>-57.705513007089195</v>
       </c>
       <c r="M13" s="60"/>
       <c r="N13" s="59">
@@ -10205,11 +9238,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="0"/>
-        <v>47.916290488643995</v>
+        <v>57.705513007089195</v>
       </c>
       <c r="P13" s="118">
         <f>P12</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -10218,15 +9251,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>1.413043069556001E-2</v>
+        <v>1.715893934198311E-2</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.32656437957752082</v>
+        <v>0.37318251830860127</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-3.4247929319346468</v>
+        <v>-3.5976007875461908</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -10242,11 +9275,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G14" s="44">
         <v>3400</v>
@@ -10266,17 +9299,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-91.787257412246618</v>
+        <v>-106.57728224750781</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O28" si="2">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>91.787257412246618</v>
+        <v>106.57728224750781</v>
       </c>
       <c r="P14" s="117">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>85</v>
@@ -10291,11 +9324,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>0.50269870721422194</v>
+        <v>0.55372229946897278</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-3.8718658957886873</v>
+        <v>-3.8038796216549144</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -10312,11 +9345,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G15" s="52">
         <v>4000</v>
@@ -10338,17 +9371,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>0.12202023848192489</v>
+        <v>7.3348492663139808E-2</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="2"/>
-        <v>0.12202023848192489</v>
+        <v>7.3348492663139808E-2</v>
       </c>
       <c r="P15" s="95">
         <f>P14</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>39</v>
@@ -10363,11 +9396,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>2.1690364068849277E-3</v>
+        <v>1.3630049016111201E-3</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>6.7547298915357601E-2</v>
+        <v>4.4110637539227282E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10384,11 +9417,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -10406,7 +9439,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-91.665237173764694</v>
+        <v>-106.50393375484467</v>
       </c>
       <c r="M16" s="60"/>
       <c r="N16" s="59">
@@ -10415,11 +9448,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="2"/>
-        <v>91.665237173764694</v>
+        <v>106.50393375484467</v>
       </c>
       <c r="P16" s="118">
         <f>P15</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -10428,15 +9461,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>2.7031918954221378E-2</v>
+        <v>3.1669323150414708E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>0.50486774362110687</v>
+        <v>0.5550853043705839</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-3.8043185968733297</v>
+        <v>-3.7597689841156869</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -10452,11 +9485,11 @@
       </c>
       <c r="E17" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F17" s="46">
         <f ca="1">E17+H17</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G17" s="44">
         <v>3500</v>
@@ -10476,17 +9509,17 @@
       </c>
       <c r="L17" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-153.34834181027145</v>
+        <v>-172.89318903973435</v>
       </c>
       <c r="M17" s="49"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43">
         <f t="shared" si="2"/>
-        <v>153.34834181027145</v>
+        <v>172.89318903973435</v>
       </c>
       <c r="P17" s="117">
         <f>RTD("wdf.rtq",,D17,"LastPrice")</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q17" s="44" t="s">
         <v>85</v>
@@ -10501,11 +9534,11 @@
       <c r="T17" s="50"/>
       <c r="U17" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>0.67549103725923487</v>
+        <v>0.72013181670627091</v>
       </c>
       <c r="V17" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-3.4853762183856816</v>
+        <v>-3.2317152864377476</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -10522,11 +9555,11 @@
       </c>
       <c r="E18" s="54">
         <f t="shared" ca="1" si="4"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F18" s="54">
         <f t="shared" ca="1" si="4"/>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G18" s="52">
         <v>4000</v>
@@ -10548,17 +9581,17 @@
       </c>
       <c r="L18" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>0.12202023848192489</v>
+        <v>7.3348492663139808E-2</v>
       </c>
       <c r="M18" s="57"/>
       <c r="N18" s="51"/>
       <c r="O18" s="51">
         <f t="shared" si="2"/>
-        <v>0.12202023848192489</v>
+        <v>7.3348492663139808E-2</v>
       </c>
       <c r="P18" s="95">
         <f>P17</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q18" s="52" t="s">
         <v>39</v>
@@ -10573,11 +9606,11 @@
       <c r="T18" s="58"/>
       <c r="U18" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>2.1690364068849277E-3</v>
+        <v>1.3630049016111201E-3</v>
       </c>
       <c r="V18" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>6.7547298915357601E-2</v>
+        <v>4.4110637539227282E-2</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10594,11 +9627,11 @@
       </c>
       <c r="E19" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F19" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G19" s="60" t="str">
         <f>G17 &amp; "|" &amp; G18</f>
@@ -10616,7 +9649,7 @@
       <c r="K19" s="60"/>
       <c r="L19" s="59">
         <f>L18+L17</f>
-        <v>-153.22632157178953</v>
+        <v>-172.81984054707121</v>
       </c>
       <c r="M19" s="60"/>
       <c r="N19" s="59">
@@ -10625,11 +9658,11 @@
       </c>
       <c r="O19" s="59">
         <f t="shared" si="2"/>
-        <v>153.22632157178953</v>
+        <v>172.81984054707121</v>
       </c>
       <c r="P19" s="118">
         <f>P18</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q19" s="60"/>
       <c r="R19" s="60"/>
@@ -10638,15 +9671,15 @@
       </c>
       <c r="T19" s="64">
         <f>O19/P19</f>
-        <v>4.5186175633084497E-2</v>
+        <v>5.1388593680366107E-2</v>
       </c>
       <c r="U19" s="64">
         <f>U18+U17</f>
-        <v>0.6776600736661198</v>
+        <v>0.72149482160788203</v>
       </c>
       <c r="V19" s="64">
         <f>V18+V17</f>
-        <v>-3.417828919470324</v>
+        <v>-3.1876046488985201</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -10662,11 +9695,11 @@
       </c>
       <c r="E20" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F20" s="46">
         <f ca="1">E20+H20</f>
-        <v>43279</v>
+        <v>43282</v>
       </c>
       <c r="G20" s="44">
         <v>3300</v>
@@ -10686,17 +9719,17 @@
       </c>
       <c r="L20" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-107.39982031709314</v>
+        <v>-118.44930880885977</v>
       </c>
       <c r="M20" s="49"/>
       <c r="N20" s="43"/>
       <c r="O20" s="43">
         <f t="shared" si="2"/>
-        <v>107.39982031709314</v>
+        <v>118.44930880885977</v>
       </c>
       <c r="P20" s="117">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q20" s="44" t="s">
         <v>85</v>
@@ -10711,11 +9744,11 @@
       <c r="T20" s="50"/>
       <c r="U20" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>0.38046102883981803</v>
+        <v>0.40891976580041955</v>
       </c>
       <c r="V20" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-6.3912921296373497</v>
+        <v>-6.4632677522880613</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="96" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -10732,11 +9765,11 @@
       </c>
       <c r="E21" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F21" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43279</v>
+        <v>43282</v>
       </c>
       <c r="G21" s="52">
         <v>4000</v>
@@ -10758,17 +9791,17 @@
       </c>
       <c r="L21" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>7.2712576506798143</v>
+        <v>5.906140361171083</v>
       </c>
       <c r="M21" s="57"/>
       <c r="N21" s="51"/>
       <c r="O21" s="51">
         <f t="shared" si="2"/>
-        <v>7.2712576506798143</v>
+        <v>5.906140361171083</v>
       </c>
       <c r="P21" s="95">
         <f>P20</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q21" s="52" t="s">
         <v>39</v>
@@ -10783,11 +9816,11 @@
       <c r="T21" s="58"/>
       <c r="U21" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.3059000110522447E-2</v>
+        <v>4.4631722539634211E-2</v>
       </c>
       <c r="V21" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>1.8182648939046544</v>
+        <v>1.5710346829841129</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="96" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10804,11 +9837,11 @@
       </c>
       <c r="E22" s="62">
         <f t="shared" ca="1" si="5"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F22" s="62">
         <f t="shared" ca="1" si="5"/>
-        <v>43279</v>
+        <v>43282</v>
       </c>
       <c r="G22" s="60" t="str">
         <f>G20 &amp; "|" &amp; G21</f>
@@ -10826,7 +9859,7 @@
       <c r="K22" s="60"/>
       <c r="L22" s="59">
         <f>L21+L20</f>
-        <v>-100.12856266641333</v>
+        <v>-112.54316844768869</v>
       </c>
       <c r="M22" s="60"/>
       <c r="N22" s="59">
@@ -10835,11 +9868,11 @@
       </c>
       <c r="O22" s="59">
         <f t="shared" si="2"/>
-        <v>100.12856266641333</v>
+        <v>112.54316844768869</v>
       </c>
       <c r="P22" s="118">
         <f>P21</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q22" s="60"/>
       <c r="R22" s="60"/>
@@ -10848,15 +9881,15 @@
       </c>
       <c r="T22" s="64">
         <f>O22/P22</f>
-        <v>2.9527738916665682E-2</v>
+        <v>3.3465111045997233E-2</v>
       </c>
       <c r="U22" s="64">
         <f>U21+U20</f>
-        <v>0.43352002895034047</v>
+        <v>0.45355148834005377</v>
       </c>
       <c r="V22" s="64">
         <f>V21+V20</f>
-        <v>-4.5730272357326953</v>
+        <v>-4.8922330693039484</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="96" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -10872,11 +9905,11 @@
       </c>
       <c r="E23" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F23" s="46">
         <f ca="1">E23+H23</f>
-        <v>43279</v>
+        <v>43282</v>
       </c>
       <c r="G23" s="44">
         <v>3400</v>
@@ -10896,17 +9929,17 @@
       </c>
       <c r="L23" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-155.04342149329682</v>
+        <v>-169.02916782661191</v>
       </c>
       <c r="M23" s="49"/>
       <c r="N23" s="43"/>
       <c r="O23" s="43">
         <f t="shared" si="2"/>
-        <v>155.04342149329682</v>
+        <v>169.02916782661191</v>
       </c>
       <c r="P23" s="117">
         <f>RTD("wdf.rtq",,D23,"LastPrice")</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q23" s="44" t="s">
         <v>85</v>
@@ -10921,11 +9954,11 @@
       <c r="T23" s="50"/>
       <c r="U23" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>0.48478368820497053</v>
+        <v>0.51423708948732383</v>
       </c>
       <c r="V23" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-6.6810690413959719</v>
+        <v>-6.6234018713929572</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="96" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -10942,11 +9975,11 @@
       </c>
       <c r="E24" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F24" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>43279</v>
+        <v>43282</v>
       </c>
       <c r="G24" s="52">
         <v>4000</v>
@@ -10968,17 +10001,17 @@
       </c>
       <c r="L24" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>7.2712576506798143</v>
+        <v>5.906140361171083</v>
       </c>
       <c r="M24" s="57"/>
       <c r="N24" s="51"/>
       <c r="O24" s="51">
         <f t="shared" si="2"/>
-        <v>7.2712576506798143</v>
+        <v>5.906140361171083</v>
       </c>
       <c r="P24" s="95">
         <f>P23</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q24" s="52" t="s">
         <v>39</v>
@@ -10993,11 +10026,11 @@
       <c r="T24" s="58"/>
       <c r="U24" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>5.3059000110522447E-2</v>
+        <v>4.4631722539634211E-2</v>
       </c>
       <c r="V24" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>1.8182648939046544</v>
+        <v>1.5710346829841129</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="96" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11014,11 +10047,11 @@
       </c>
       <c r="E25" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F25" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43279</v>
+        <v>43282</v>
       </c>
       <c r="G25" s="60" t="str">
         <f>G23 &amp; "|" &amp; G24</f>
@@ -11036,7 +10069,7 @@
       <c r="K25" s="60"/>
       <c r="L25" s="59">
         <f>L24+L23</f>
-        <v>-147.772163842617</v>
+        <v>-163.12302746544083</v>
       </c>
       <c r="M25" s="60"/>
       <c r="N25" s="59">
@@ -11045,11 +10078,11 @@
       </c>
       <c r="O25" s="59">
         <f t="shared" si="2"/>
-        <v>147.772163842617</v>
+        <v>163.12302746544083</v>
       </c>
       <c r="P25" s="118">
         <f>P24</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q25" s="60"/>
       <c r="R25" s="60"/>
@@ -11058,15 +10091,15 @@
       </c>
       <c r="T25" s="64">
         <f>O25/P25</f>
-        <v>4.3577754008439107E-2</v>
+        <v>4.8505211854130488E-2</v>
       </c>
       <c r="U25" s="64">
         <f>U24+U23</f>
-        <v>0.53784268831549298</v>
+        <v>0.55886881202695804</v>
       </c>
       <c r="V25" s="64">
         <f>V24+V23</f>
-        <v>-4.8628041474913175</v>
+        <v>-5.0523671884088444</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="96" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -11082,11 +10115,11 @@
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43373</v>
+        <v>43376</v>
       </c>
       <c r="G26" s="44">
         <v>3600</v>
@@ -11106,17 +10139,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>277.16067598738664</v>
+        <v>296.57883781994678</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" si="2"/>
-        <v>277.16067598738664</v>
+        <v>296.57883781994678</v>
       </c>
       <c r="P26" s="117">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -11131,11 +10164,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.68048550967887422</v>
+        <v>-0.70639074874634389</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>8.434767293663981</v>
+        <v>8.0388891957584292</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="96" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11152,11 +10185,11 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ca="1" si="7"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="7"/>
-        <v>43373</v>
+        <v>43376</v>
       </c>
       <c r="G27" s="52">
         <v>4000</v>
@@ -11178,17 +10211,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-21.529334345178711</v>
+        <v>-18.654457369480724</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="2"/>
-        <v>21.529334345178711</v>
+        <v>18.654457369480724</v>
       </c>
       <c r="P27" s="95">
         <f>P26</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -11203,11 +10236,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.10853117573503823</v>
+        <v>-9.6958928966728308E-2</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-4.4658566042052996</v>
+        <v>-4.081272700467963</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="96" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11224,11 +10257,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ca="1" si="7"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="7"/>
-        <v>43373</v>
+        <v>43376</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -11246,7 +10279,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>255.63134164220793</v>
+        <v>277.92438045046606</v>
       </c>
       <c r="M28" s="60"/>
       <c r="N28" s="59">
@@ -11255,11 +10288,11 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="2"/>
-        <v>255.63134164220793</v>
+        <v>277.92438045046606</v>
       </c>
       <c r="P28" s="118">
         <f>P27</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
@@ -11268,15 +10301,15 @@
       </c>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>7.5385237877383646E-2</v>
+        <v>8.2641802096481143E-2</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.78901668541391246</v>
+        <v>-0.8033496777130722</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>3.9689106894586814</v>
+        <v>3.9576164952904662</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="98" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -11292,11 +10325,11 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G29" s="44">
         <v>92</v>
@@ -11361,11 +10394,11 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ca="1" si="9"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="9"/>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G30" s="52">
         <v>105</v>
@@ -11433,11 +10466,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ca="1" si="10"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="10"/>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -11503,11 +10536,11 @@
       </c>
       <c r="E32" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F32" s="46">
         <f ca="1">E32+H32</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G32" s="44">
         <v>95</v>
@@ -11572,11 +10605,11 @@
       </c>
       <c r="E33" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F33" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G33" s="52">
         <v>102.5</v>
@@ -11644,11 +10677,11 @@
       </c>
       <c r="E34" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F34" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="G34" s="60" t="str">
         <f>G32 &amp; "|" &amp; G33</f>
@@ -11714,11 +10747,11 @@
       </c>
       <c r="E35" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F35" s="46">
         <f ca="1">E35+H35</f>
-        <v>43279</v>
+        <v>43282</v>
       </c>
       <c r="G35" s="44">
         <v>3350</v>
@@ -11738,17 +10771,17 @@
       </c>
       <c r="L35" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>93.687012084147</v>
+        <v>106.09773874772827</v>
       </c>
       <c r="M35" s="49"/>
       <c r="N35" s="43"/>
       <c r="O35" s="43">
         <f t="shared" ref="O35:O37" si="13">IF(L35&lt;=0,ABS(L35)+N35,L35-N35)</f>
-        <v>93.687012084147</v>
+        <v>106.09773874772827</v>
       </c>
       <c r="P35" s="117">
         <f>RTD("wdf.rtq",,D35,"LastPrice")</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q35" s="44" t="s">
         <v>85</v>
@@ -11763,11 +10796,11 @@
       <c r="T35" s="50"/>
       <c r="U35" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>-0.4240045794517755</v>
+        <v>-0.46261595462055993</v>
       </c>
       <c r="V35" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>6.5692748067265256</v>
+        <v>6.6036341687143931</v>
       </c>
     </row>
     <row r="36" spans="1:22" s="96" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11784,11 +10817,11 @@
       </c>
       <c r="E36" s="54">
         <f t="shared" ref="E36:F36" ca="1" si="14">E35</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F36" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43279</v>
+        <v>43282</v>
       </c>
       <c r="G36" s="52">
         <v>3600</v>
@@ -11809,17 +10842,17 @@
       </c>
       <c r="L36" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-55.135059851792334</v>
+        <v>-47.60313686288157</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="51"/>
       <c r="O36" s="51">
         <f t="shared" si="13"/>
-        <v>55.135059851792334</v>
+        <v>47.60313686288157</v>
       </c>
       <c r="P36" s="95">
         <f>P35</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q36" s="52" t="s">
         <v>39</v>
@@ -11834,11 +10867,11 @@
       <c r="T36" s="58"/>
       <c r="U36" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-0.28319129537521803</v>
+        <v>-0.25501035042907461</v>
       </c>
       <c r="V36" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-5.6821490332339408</v>
+        <v>-5.3469249503705214</v>
       </c>
     </row>
     <row r="37" spans="1:22" s="102" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11855,11 +10888,11 @@
       </c>
       <c r="E37" s="62">
         <f t="shared" ref="E37:F37" ca="1" si="15">E36</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F37" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43279</v>
+        <v>43282</v>
       </c>
       <c r="G37" s="60" t="str">
         <f>G35 &amp; "|" &amp; G36</f>
@@ -11877,7 +10910,7 @@
       <c r="K37" s="60"/>
       <c r="L37" s="59">
         <f>L36+L35</f>
-        <v>38.551952232354665</v>
+        <v>58.494601884846702</v>
       </c>
       <c r="M37" s="60"/>
       <c r="N37" s="59">
@@ -11886,11 +10919,11 @@
       </c>
       <c r="O37" s="59">
         <f t="shared" si="13"/>
-        <v>38.551952232354665</v>
+        <v>58.494601884846702</v>
       </c>
       <c r="P37" s="118">
         <f>P36</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q37" s="60"/>
       <c r="R37" s="60"/>
@@ -11899,15 +10932,15 @@
       </c>
       <c r="T37" s="64">
         <f>O37/P37</f>
-        <v>1.1368903636789933E-2</v>
+        <v>1.7393577723712965E-2</v>
       </c>
       <c r="U37" s="64">
         <f>U36+U35</f>
-        <v>-0.70719587482699353</v>
+        <v>-0.71762630504963454</v>
       </c>
       <c r="V37" s="64">
         <f>V36+V35</f>
-        <v>0.88712577349258481</v>
+        <v>1.2567092183438717</v>
       </c>
     </row>
     <row r="38" spans="1:22" s="96" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -11923,11 +10956,11 @@
       </c>
       <c r="E38" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F38" s="46">
         <f ca="1">E38+H38</f>
-        <v>43369</v>
+        <v>43372</v>
       </c>
       <c r="G38" s="44">
         <v>3350</v>
@@ -11947,17 +10980,17 @@
       </c>
       <c r="L38" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>139.3795227226135</v>
+        <v>151.84245707569312</v>
       </c>
       <c r="M38" s="49"/>
       <c r="N38" s="43"/>
       <c r="O38" s="43">
         <f t="shared" ref="O38:O40" si="16">IF(L38&lt;=0,ABS(L38)+N38,L38-N38)</f>
-        <v>139.3795227226135</v>
+        <v>151.84245707569312</v>
       </c>
       <c r="P38" s="117">
         <f>RTD("wdf.rtq",,D38,"LastPrice")</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q38" s="44" t="s">
         <v>85</v>
@@ -11972,11 +11005,11 @@
       <c r="T38" s="50"/>
       <c r="U38" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-0.43153831828703915</v>
+        <v>-0.45874883497845076</v>
       </c>
       <c r="V38" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>9.2846543345493728</v>
+        <v>9.2896282014476128</v>
       </c>
     </row>
     <row r="39" spans="1:22" s="96" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11993,11 +11026,11 @@
       </c>
       <c r="E39" s="54">
         <f t="shared" ref="E39:F39" ca="1" si="17">E38</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F39" s="54">
         <f t="shared" ca="1" si="17"/>
-        <v>43369</v>
+        <v>43372</v>
       </c>
       <c r="G39" s="52">
         <v>3600</v>
@@ -12018,17 +11051,17 @@
       </c>
       <c r="L39" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>-103.16986540994594</v>
+        <v>-93.600655304585644</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="51"/>
       <c r="O39" s="51">
         <f t="shared" si="16"/>
-        <v>103.16986540994594</v>
+        <v>93.600655304585644</v>
       </c>
       <c r="P39" s="95">
         <f>P38</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q39" s="52" t="s">
         <v>39</v>
@@ -12043,11 +11076,11 @@
       <c r="T39" s="58"/>
       <c r="U39" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>-0.35283128842138467</v>
+        <v>-0.33074202564762345</v>
       </c>
       <c r="V39" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>-8.7879470175475944</v>
+        <v>-8.5070333296376361</v>
       </c>
     </row>
     <row r="40" spans="1:22" s="102" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12064,11 +11097,11 @@
       </c>
       <c r="E40" s="62">
         <f t="shared" ca="1" si="18"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F40" s="62">
         <f t="shared" ca="1" si="18"/>
-        <v>43369</v>
+        <v>43372</v>
       </c>
       <c r="G40" s="60" t="str">
         <f>G38 &amp; "|" &amp; G39</f>
@@ -12086,22 +11119,22 @@
       <c r="K40" s="60"/>
       <c r="L40" s="59">
         <f>L39+L38</f>
-        <v>36.209657312667559</v>
+        <v>58.241801771107475</v>
       </c>
       <c r="M40" s="60">
         <v>50</v>
       </c>
       <c r="N40" s="59">
         <f>M40/10000*I40*P40</f>
-        <v>8.3613698630136977</v>
+        <v>8.292328767123287</v>
       </c>
       <c r="O40" s="59">
         <f t="shared" si="16"/>
-        <v>27.84828744965386</v>
+        <v>49.949473003984188</v>
       </c>
       <c r="P40" s="118">
         <f>P39</f>
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="Q40" s="60"/>
       <c r="R40" s="60"/>
@@ -12110,15 +11143,15 @@
       </c>
       <c r="T40" s="64">
         <f>O40/P40</f>
-        <v>8.2124115156749812E-3</v>
+        <v>1.4852653286941478E-2</v>
       </c>
       <c r="U40" s="64">
         <f>U39+U38</f>
-        <v>-0.78436960670842382</v>
+        <v>-0.78949086062607421</v>
       </c>
       <c r="V40" s="64">
         <f>V39+V38</f>
-        <v>0.49670731700177839</v>
+        <v>0.78259487180997667</v>
       </c>
     </row>
     <row r="41" spans="1:22" s="96" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -12130,15 +11163,15 @@
         <v>160</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E41" s="46">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F41" s="46">
         <f ca="1">E41+H41</f>
-        <v>43269</v>
+        <v>43272</v>
       </c>
       <c r="G41" s="44">
         <v>13500</v>
@@ -12158,17 +11191,17 @@
       </c>
       <c r="L41" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
-        <v>255.89888065499144</v>
+        <v>230.21048214287293</v>
       </c>
       <c r="M41" s="49"/>
       <c r="N41" s="43"/>
       <c r="O41" s="43">
         <f t="shared" ref="O41:O43" si="19">IF(L41&lt;=0,ABS(L41)+N41,L41-N41)</f>
-        <v>255.89888065499144</v>
+        <v>230.21048214287293</v>
       </c>
       <c r="P41" s="117">
         <f>RTD("wdf.rtq",,D41,"LastPrice")</f>
-        <v>13920</v>
+        <v>14000</v>
       </c>
       <c r="Q41" s="44" t="s">
         <v>85</v>
@@ -12183,11 +11216,11 @@
       <c r="T41" s="50"/>
       <c r="U41" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
-        <v>-0.33404606997464725</v>
+        <v>-0.30833061482553603</v>
       </c>
       <c r="V41" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
-        <v>23.646312272306659</v>
+        <v>23.004038620089432</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="96" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -12199,15 +11232,15 @@
         <v>160</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E42" s="54">
         <f t="shared" ref="E42:F42" ca="1" si="20">E41</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F42" s="54">
         <f t="shared" ca="1" si="20"/>
-        <v>43269</v>
+        <v>43272</v>
       </c>
       <c r="G42" s="52">
         <v>14300</v>
@@ -12230,17 +11263,17 @@
       </c>
       <c r="L42" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>-331.84456567817597</v>
+        <v>-364.54818729402814</v>
       </c>
       <c r="M42" s="57"/>
       <c r="N42" s="51"/>
       <c r="O42" s="51">
         <f t="shared" si="19"/>
-        <v>331.84456567817597</v>
+        <v>364.54818729402814</v>
       </c>
       <c r="P42" s="95">
         <f>P41</f>
-        <v>13920</v>
+        <v>14000</v>
       </c>
       <c r="Q42" s="52" t="s">
         <v>39</v>
@@ -12255,11 +11288,11 @@
       <c r="T42" s="58"/>
       <c r="U42" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>-0.39634385989302245</v>
+        <v>-0.42128339564442285</v>
       </c>
       <c r="V42" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>-25.03234020001355</v>
+        <v>-25.546784243643742</v>
       </c>
     </row>
     <row r="43" spans="1:22" s="102" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12276,11 +11309,11 @@
       </c>
       <c r="E43" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="F43" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>43269</v>
+        <v>43272</v>
       </c>
       <c r="G43" s="60" t="str">
         <f>G41 &amp; "|" &amp; G42</f>
@@ -12298,22 +11331,22 @@
       <c r="K43" s="60"/>
       <c r="L43" s="59">
         <f>L42+L41</f>
-        <v>-75.945685023184524</v>
+        <v>-134.33770515115521</v>
       </c>
       <c r="M43" s="60">
         <v>50</v>
       </c>
       <c r="N43" s="59">
         <f>M43/10000*I43*P43</f>
-        <v>15.254794520547945</v>
+        <v>15.342465753424657</v>
       </c>
       <c r="O43" s="59">
         <f t="shared" si="19"/>
-        <v>91.20047954373247</v>
+        <v>149.68017090457985</v>
       </c>
       <c r="P43" s="118">
         <f>P42</f>
-        <v>13920</v>
+        <v>14000</v>
       </c>
       <c r="Q43" s="60"/>
       <c r="R43" s="60"/>
@@ -12322,15 +11355,15 @@
       </c>
       <c r="T43" s="64">
         <f>O43/P43</f>
-        <v>6.5517585879118151E-3</v>
+        <v>1.069144077889856E-2</v>
       </c>
       <c r="U43" s="64">
         <f>U42+U41</f>
-        <v>-0.73038992986766971</v>
+        <v>-0.72961401046995888</v>
       </c>
       <c r="V43" s="64">
         <f>V42+V41</f>
-        <v>-1.3860279277068912</v>
+        <v>-2.5427456235543104</v>
       </c>
     </row>
   </sheetData>
@@ -12397,10 +11430,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="146"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -12548,7 +11581,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3592</v>
+        <v>3586</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -12565,11 +11598,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -12586,30 +11619,30 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-22.062237390740986</v>
+        <v>-21.390724688936448</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.3618630136986303</v>
+        <v>2.3579178082191783</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>24.424100404439617</v>
+        <v>23.748642497155625</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>6.7995825179397599E-3</v>
+        <v>6.6225996924583449E-3</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.10729580488622048</v>
+        <v>0.10519599120062395</v>
       </c>
       <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>1.0181061789792452</v>
+        <v>1.0154762052774924</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -12651,11 +11684,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43369</v>
+        <v>43372</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -14347,10 +13380,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="148"/>
+      <c r="C1" s="144"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -14482,18 +13515,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3592</v>
+        <v>3586</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -14507,30 +13540,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>49.699518798656072</v>
+        <v>48.078539303542016</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.3618630136986303</v>
+        <v>2.3579178082191783</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>52.061381812354703</v>
+        <v>50.436457111761193</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>1.4493703177158881E-2</v>
+        <v>1.4064823511366757E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.2733817921125592</v>
+        <v>0.26695564923215898</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>3.4240267483094726</v>
+        <v>3.3778728449743198</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -14562,11 +13595,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -14632,11 +13665,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43192</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43219</v>
+        <v>43222</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
